--- a/downloaded_files/SEES481_Tutorial-35613.xlsx
+++ b/downloaded_files/SEES481_Tutorial-35613.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Dina Walid abdelhalim Refay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زينة سامح عبدالدايم العسال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeina Sameh Abdeldayem Elassal</x:t>
   </x:si>
   <x:si>
     <x:t>1210235</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1014,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4308738426</x:v>
+        <x:v>45921.5322303241</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45915.9880097222</x:v>
+        <x:v>45906.4308738426</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6730399653</x:v>
+        <x:v>45915.9880097222</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.8998296296</x:v>
+        <x:v>45906.6730399653</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.6298250347</x:v>
+        <x:v>45909.8998296296</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4156922106</x:v>
+        <x:v>45909.6298250347</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.8960304051</x:v>
+        <x:v>45906.4156922106</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.9001108449</x:v>
+        <x:v>45909.8960304051</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6245849537</x:v>
+        <x:v>45909.9001108449</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6259344097</x:v>
+        <x:v>45912.6245849537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45912.6259344097</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6656807523</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45906.6656807523</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SEES481_Tutorial-35613.xlsx
+++ b/downloaded_files/SEES481_Tutorial-35613.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Nouran Maher Mostafa Kamel Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210327</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيي طارق السيد سلام الهنداوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yehia Tarek El Sayed Sallam El Hendawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210328</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.6259344097</x:v>
+        <x:v>45926.951255787</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45912.6259344097</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6656807523</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.6656807523</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SEES481_Tutorial-35613.xlsx
+++ b/downloaded_files/SEES481_Tutorial-35613.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -238,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Khaled Ahmed Kadry Saleh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1180217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق محمد فوزى عريبه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Mohamed Farouk Mohamed Fawzy Oraiba</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -662,7 +671,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.540625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.370625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45937.7891599537</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SEES481_Tutorial-35613.xlsx
+++ b/downloaded_files/SEES481_Tutorial-35613.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Phelopateer Emad Magdy Fayez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4191310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد عبدالعزيز غريب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Abdel Aziz</x:t>
   </x:si>
   <x:si>
     <x:t>1210074</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -672,7 +681,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.540625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.370625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.240625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.6298250347</x:v>
+        <x:v>45942.5883703704</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4156922106</x:v>
+        <x:v>45909.6298250347</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.8960304051</x:v>
+        <x:v>45906.4156922106</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.9001108449</x:v>
+        <x:v>45909.8960304051</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6245849537</x:v>
+        <x:v>45909.9001108449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45926.951255787</x:v>
+        <x:v>45912.6245849537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.6259344097</x:v>
+        <x:v>45926.951255787</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4212792477</x:v>
+        <x:v>45912.6259344097</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6656807523</x:v>
+        <x:v>45909.4212792477</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45937.7891599537</x:v>
+        <x:v>45906.6656807523</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45937.7891599537</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
